--- a/data/output/FV2410_FV2404/UTILMD/44145.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44145.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="393">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4769" uniqueCount="393">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1288,6 +1288,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U207" totalsRowShown="0">
+  <autoFilter ref="A1:U207"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1577,7 +1607,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11673,5 +11706,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44145.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44145.xlsx
@@ -2319,7 +2319,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4857,7 +4857,7 @@
         <v>380</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5023,7 +5023,7 @@
         <v>381</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5239,7 +5239,7 @@
         <v>380</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5835,7 +5835,7 @@
         <v>383</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6769,7 +6769,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8409,7 +8409,7 @@
         <v>384</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8855,7 +8855,7 @@
         <v>384</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9671,7 +9671,7 @@
         <v>385</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9821,7 +9821,7 @@
         <v>386</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10039,7 +10039,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10419,7 +10419,7 @@
         <v>389</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10831,7 +10831,7 @@
         <v>389</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11189,7 +11189,7 @@
         <v>390</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11389,7 +11389,7 @@
         <v>391</v>
       </c>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11691,7 +11691,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12367,7 +12367,7 @@
         <v>392</v>
       </c>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N205" s="2"/>
